--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1615182.27291595</v>
+        <v>1605984.156330236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6933941.905492768</v>
+        <v>7709817.850552402</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10611410.67678728</v>
+        <v>10553195.33670105</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.6300723051348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>328.8165131028215</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>81.12990358774286</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>184.7926970666892</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>169.4365987089328</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>123.884560043666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.49576810820431</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>78.69601404573477</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>259.5260115130741</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>361.5124928237678</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.8218782230599</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>10.62366378450165</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="H13" t="n">
-        <v>30.96411613815253</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>13.02719212039631</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>6.380068175847634</v>
       </c>
       <c r="I25" t="n">
-        <v>13.0271921203964</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694715</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>55.0442806932009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1572078037229</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>77.31354443380475</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>25.0114162562631</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>75.97812655527358</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.86209348694715</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,16 +3481,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
-        <v>78.58151650834321</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>6.38006817584793</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.5489038166068</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>181.5489038166068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5489038166068</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.5489038166068</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1916.245359491378</v>
+        <v>1034.912596435357</v>
       </c>
       <c r="C5" t="n">
-        <v>1547.282842550966</v>
+        <v>1034.912596435357</v>
       </c>
       <c r="D5" t="n">
-        <v>1547.282842550966</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E5" t="n">
-        <v>1161.494589952722</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F5" t="n">
-        <v>750.5086851631143</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G5" t="n">
-        <v>332.5448770613011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>1190.262360094769</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2151.286341942363</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1798.517686672249</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1425.051928411169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1034.912596435357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T7" t="n">
-        <v>308.6274700262513</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>843.9087787205918</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>589.224290514705</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>299.8071204777444</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2326.134191782762</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>830.0930207753941</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>419.1071159857865</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665502</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>838.937608855259</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2326.134191782762</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>2326.134191782762</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>537.8115956207098</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>845.2309936650815</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>490.3302205638821</v>
+        <v>455.2982222336352</v>
       </c>
       <c r="C10" t="n">
-        <v>490.3302205638821</v>
+        <v>455.2982222336352</v>
       </c>
       <c r="D10" t="n">
-        <v>490.3302205638821</v>
+        <v>305.1815828212995</v>
       </c>
       <c r="E10" t="n">
-        <v>490.3302205638821</v>
+        <v>305.1815828212995</v>
       </c>
       <c r="F10" t="n">
-        <v>343.4402730659717</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="G10" t="n">
-        <v>343.4402730659717</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>189.1856299657368</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
-        <v>64.67395534006309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485941</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="U10" t="n">
-        <v>490.3302205638821</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="V10" t="n">
-        <v>490.3302205638821</v>
+        <v>1137.04522214449</v>
       </c>
       <c r="W10" t="n">
-        <v>490.3302205638821</v>
+        <v>847.6280521075289</v>
       </c>
       <c r="X10" t="n">
-        <v>490.3302205638821</v>
+        <v>847.6280521075289</v>
       </c>
       <c r="Y10" t="n">
-        <v>490.3302205638821</v>
+        <v>626.8354729639988</v>
       </c>
     </row>
     <row r="11">
@@ -5018,13 +5018,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5036,49 +5036,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>1999.417367126749</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5151,7 +5151,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G13" t="n">
-        <v>224.1635966180819</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5242,7 +5242,7 @@
         <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,16 +5264,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5288,40 +5288,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5373,16 +5373,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5464,22 +5464,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192148</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3858.203957510973</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>3689.267774583067</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>3539.151135170731</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>3391.238041588338</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>3244.348094090427</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>3076.645257465146</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>2930.428070683004</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W19" t="n">
-        <v>4488.63455238276</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X19" t="n">
-        <v>4260.645001484743</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y19" t="n">
-        <v>4039.852422341213</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5747,34 +5747,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>416.3606924710442</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608906</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814245</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3314.41660243073</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>3145.480419502823</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>2995.363780090488</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4488.948855545364</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>4234.264367339478</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>3944.847197302517</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>3716.8576464045</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>3496.06506726097</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>907.902424901197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1772.421240554552</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2750.97154338438</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.495701195956</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C25" t="n">
-        <v>867.5595182680493</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D25" t="n">
-        <v>717.4428788557135</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E25" t="n">
-        <v>569.5297852733204</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F25" t="n">
-        <v>422.63983777541</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G25" t="n">
-        <v>254.937001150129</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="H25" t="n">
-        <v>108.7198143679867</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6175,22 +6175,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1666.926296067743</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>1438.936745169726</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>1218.144166026196</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,19 +6227,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679677</v>
@@ -6251,22 +6251,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
         <v>2760.816196754296</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3291.922396632139</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>3122.986213704232</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>2972.869574291897</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763411</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763411</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177248</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4466.454649746774</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.454649746774</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.770161540887</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.352991503926</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X28" t="n">
-        <v>3694.363440605909</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y28" t="n">
-        <v>3473.570861462379</v>
+        <v>1163.957642384228</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.613856788637</v>
+        <v>929.0412991518393</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607301</v>
+        <v>929.0412991518393</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6649,22 +6649,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1878.248976777628</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.146109903272</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1334.461621697385</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.044451660424</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X31" t="n">
-        <v>817.0549007624069</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y31" t="n">
-        <v>596.2623216188767</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1664.032360218089</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2642.582663047918</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3189.3614801067</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.8067350374723</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C34" t="n">
-        <v>506.8067350374723</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374723</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>120.8250912729026</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1789.767426483168</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1568.000811052694</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1278.897944178337</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1024.21345597245</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>734.7962859354897</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>506.8067350374723</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.8067350374723</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.806306216375</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464783</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.957642384228</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1163.957642384228</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1163.957642384228</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143013</v>
@@ -7160,13 +7160,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7178,22 +7178,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1963.91817329694</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968865</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3942.370854773035</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>3773.434671845128</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4688.221265177248</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4688.221265177248</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4688.221265177248</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>4572.801449644821</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>4344.811898746804</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>4124.019319603274</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7445,16 +7445,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7591,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>619.8559841413803</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>619.8559841413803</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7649,25 +7649,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7682,16 +7682,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
         <v>95.56103444839441</v>
@@ -7831,25 +7831,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1949.898952795766</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1728.132337365293</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1439.029470490936</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>894.9278122480885</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>666.9382613500711</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>446.145682206541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,10 +8219,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>408.9734448478481</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928324</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>56.94306717106267</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>106.8604465378988</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>97.95619053890903</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>231.5010718068644</v>
+        <v>89.52456338961838</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>39.48321557772567</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>123.4719563470481</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>103.7862464855135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>107.5040408147555</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>219.3344627260154</v>
+        <v>189.7998007892634</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>410.4190035206657</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>169.5026663584964</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.26811680410417</v>
       </c>
       <c r="H13" t="n">
-        <v>113.7908987761682</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12041821276419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.3749467384731</v>
       </c>
       <c r="I25" t="n">
-        <v>83.3252282894417</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>136.9698866949902</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>91.38968195336827</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.4582652144895</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>142.2354048423645</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>141.0143920027651</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>113.7908987761683</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594887</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
-        <v>88.66530459028462</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,7 +26071,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>183.388957155594</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>974009.2231331263</v>
+        <v>951618.3173206041</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951618.3173206041</v>
+        <v>911939.1475283557</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901348.8565745788</v>
+        <v>901348.8565745789</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901348.8565745789</v>
+        <v>901348.8565745788</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
         <v>516206.3229530781</v>
       </c>
       <c r="G2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="H2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="I2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="H2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="J2" t="n">
-        <v>516206.3229530782</v>
       </c>
       <c r="K2" t="n">
         <v>516206.3229530783</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="M2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.322953078</v>
       </c>
       <c r="O2" t="n">
         <v>516206.322953078</v>
       </c>
       <c r="P2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.322953078</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513058</v>
       </c>
       <c r="E3" t="n">
-        <v>554057.3276165043</v>
+        <v>258331.9582431703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="F4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="P4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346976.3611066573</v>
+        <v>-349072.2223292029</v>
       </c>
       <c r="C6" t="n">
-        <v>242991.5181078872</v>
+        <v>73401.74154302315</v>
       </c>
       <c r="D6" t="n">
-        <v>86525.47575164348</v>
+        <v>1235.322459967487</v>
       </c>
       <c r="E6" t="n">
-        <v>-161975.0650193364</v>
+        <v>132929.0071032986</v>
       </c>
       <c r="F6" t="n">
-        <v>392082.2625971677</v>
+        <v>391260.9653464687</v>
       </c>
       <c r="G6" t="n">
-        <v>392082.2625971678</v>
+        <v>391260.9653464688</v>
       </c>
       <c r="H6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.965346469</v>
       </c>
       <c r="I6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.965346469</v>
       </c>
       <c r="J6" t="n">
-        <v>215659.043404575</v>
+        <v>214837.7461538758</v>
       </c>
       <c r="K6" t="n">
-        <v>392082.262597168</v>
+        <v>391260.9653464688</v>
       </c>
       <c r="L6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.9653464688</v>
       </c>
       <c r="M6" t="n">
-        <v>262439.9477582232</v>
+        <v>261618.6505075242</v>
       </c>
       <c r="N6" t="n">
-        <v>392082.2625971677</v>
+        <v>391260.9653464686</v>
       </c>
       <c r="O6" t="n">
-        <v>392082.2625971677</v>
+        <v>391260.9653464686</v>
       </c>
       <c r="P6" t="n">
-        <v>392082.2625971679</v>
+        <v>391260.9653464686</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599693</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.1037693583457</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>36.45637866818606</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>53.83571820459537</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>40.24240839139509</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>185.2464429117501</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>200.0382127206911</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>168.53933734988</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>207.5646406123622</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7468802579334</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>49.92464852976707</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.01010195887739</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.072178097267335</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105703</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246317</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.14530795926391</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>549.709460849114</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>257.6064425777947</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832975</v>
       </c>
       <c r="N8" t="n">
-        <v>303.1576312772749</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198258</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>294.0960148009277</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>381.9200057109104</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898481</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>770.4221876370912</v>
+        <v>628.4456792198451</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
@@ -35425,13 +35425,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>376.6745021331262</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>324.0400586087371</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>460.6632429024486</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,7 +36367,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36595,22 +36595,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>502.5482327048853</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>563.0941552070876</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>556.5257492814159</v>
+        <v>526.9910873446639</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>866.0091179129979</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -38017,28 +38017,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>568.2646525778682</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531884</v>
+        <v>1707366.200155813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4523652507637</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.11456485616236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>234.5529121680388</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>344.4524256080903</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.25490562468548</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>47.53417211729268</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>89.44403296455927</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>252.630060191398</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.80978492054845</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34.2105855891487</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>40.6225301034174</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.006892987834117</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.242648509747</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1487.242648509747</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1487.242648509747</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1273.280804219765</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1273.280804219765</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>1273.280804219765</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>609.5656957421922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>609.5656957421922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>609.5656957421922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.610057246</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.647540305589</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.647540305589</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>950.8592877073443</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>539.8733829177368</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2627.474653694302</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="X8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.209897310122</v>
+        <v>2450.586545470041</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.4629204073742</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>370.4629204073742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.4629204073742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>591.2554995509043</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>591.2554995509043</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>591.2554995509043</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>591.2554995509043</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.4629204073742</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3807.864035926977</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>4359.773766166264</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>174.7268401779303</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7101,46 +7101,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580257</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E40" t="n">
         <v>549.6145409888043</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1936.428221820188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.925817935984</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2261.070983590888</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2041.469518613829</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1752.394291958027</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>428.6591547093815</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>35.04072454780369</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>60.19363748756501</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891692</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>62.89964020219851</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>245.5619442858267</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.36835372228757</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="15">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26337,10 +26337,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26349,10 +26349,10 @@
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
@@ -26435,22 +26435,22 @@
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292029</v>
+        <v>-349072.2223292027</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853418</v>
+        <v>240895.6568853419</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154707</v>
+        <v>85091.85079154681</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.4679728926</v>
+        <v>-353554.8472272496</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.2234079143</v>
+        <v>417497.8441535569</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.8441535573</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.0042153212</v>
+        <v>241074.6249609641</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535571</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998556</v>
+        <v>293289.3334454985</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.8441535573</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.2234079141</v>
+        <v>417497.844153557</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.2234079142</v>
+        <v>417497.8441535573</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>259.4780048214981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>99.10841501723573</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>141.6440104544635</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.4700884959324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>147.377457904223</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>69.33174441270472</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>58.41028635547235</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>365.3827318286441</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>296.7939056914943</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28061,22 +28061,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>33.63059446669897</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510266</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,10 +32560,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>624.9563394487576</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>70.37821951911188</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366964</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,10 +36208,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191277</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1707366.200155813</v>
+        <v>1709126.730458599</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>74.37719913627926</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>250.1325537001773</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.52687838733164</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>344.4524256080903</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>103.5280487491366</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>72.93636994034556</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.44403296455927</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>79.2860473850909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0807461401153</v>
       </c>
     </row>
     <row r="11">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3542165280282</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.80978492054845</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>80.10107535865887</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>34.2105855891487</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.53432244437066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="41">
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
         <v>1036.358670716696</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2390.814429886846</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858352</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533573</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>555.3407008637498</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2063.986705405919</v>
+        <v>1295.703316487979</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1295.703316487979</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>937.4376178812288</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>551.6493652829845</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>140.6634604933769</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>127.6160827702085</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>127.6160827702085</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>157.7403863883401</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>710.5536446345393</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.271455617851</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1969.579123677698</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2516.740328444775</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2627.474653694302</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="Y8" t="n">
-        <v>2450.586545470041</v>
+        <v>1682.303156552101</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.0298983709613</v>
+        <v>686.2890508331914</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>536.4709423447312</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>315.678363201201</v>
+        <v>867.9375156634311</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.563011941682</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.48778528588</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1646.803297079993</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.386127043032</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>341.9229394630504</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>341.9229394630504</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>174.7268401779303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6132,13 +6132,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6788,13 +6788,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>377.6556127449245</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>210.4595134598044</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,13 +7025,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>633.9926444679666</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>633.9926444679666</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,16 +7496,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="44">
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7800,7 +7800,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.04072454780369</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-5.19977698876701e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.89260457059962</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>144.5956654067398</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>111.1976478713718</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>60.19363748756501</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,10 +23940,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>106.0841272570752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>62.89964020219851</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>101.682581879676</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>892740.8113791054</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26346,16 +26346,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808065</v>
@@ -26423,40 +26423,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292027</v>
+        <v>-349072.2223292028</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853419</v>
+        <v>240895.6568853418</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154681</v>
+        <v>85091.85079154704</v>
       </c>
       <c r="E6" t="n">
-        <v>-353554.8472272496</v>
+        <v>-353242.2058983281</v>
       </c>
       <c r="F6" t="n">
-        <v>417497.8441535569</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="G6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="H6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824786</v>
       </c>
       <c r="I6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="J6" t="n">
-        <v>241074.6249609641</v>
+        <v>241387.2662898854</v>
       </c>
       <c r="K6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="L6" t="n">
-        <v>417497.8441535571</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="M6" t="n">
-        <v>293289.3334454985</v>
+        <v>293601.9747744199</v>
       </c>
       <c r="N6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="O6" t="n">
-        <v>417497.844153557</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="P6" t="n">
-        <v>417497.8441535573</v>
+        <v>417810.4854824784</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>142.0711212213785</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>99.10841501723573</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>141.6440104544635</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>69.33174441270472</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>266.2030519293324</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>45.55967095354474</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.7939056914943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87.96077371353694</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34.50390721197951</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,10 +32557,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33994,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34216,10 +34216,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34459,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709964</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060965</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.37821951911188</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35263,7 +35263,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,10 +36205,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37642,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37864,10 +37864,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876631</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
